--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59063C6E-92CB-40B7-B63B-51D48E14DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4675FC72-4502-47BE-BE14-3F5D04B6508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{B1F4472C-3F88-4138-AA53-D4B368CD7802}"/>
+    <workbookView xWindow="-57720" yWindow="3390" windowWidth="29040" windowHeight="17520" xr2:uid="{B1F4472C-3F88-4138-AA53-D4B368CD7802}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>W1</t>
   </si>
@@ -56,9 +56,6 @@
     <t>18.11.24 -22.11.24</t>
   </si>
   <si>
-    <t>Author: Gian Jaya</t>
-  </si>
-  <si>
     <t>ist</t>
   </si>
   <si>
@@ -219,6 +216,12 @@
   </si>
   <si>
     <t>6) Auswerten der Arbeit Abschliessen und somit das Projekt beenden.</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author: Gian Jaya                                                                                       Meilensteine: </t>
   </si>
 </sst>
 </file>
@@ -500,16 +503,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,9 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,9 +544,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,16 +771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342649</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>397078</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>97451</xdr:rowOff>
+      <xdr:rowOff>83844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>547012</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601441</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>257805</xdr:rowOff>
+      <xdr:rowOff>244198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -792,7 +795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15211708" y="12747154"/>
+          <a:off x="15786757" y="13241951"/>
           <a:ext cx="204363" cy="160354"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -828,16 +831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295527</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227491</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>75446</xdr:rowOff>
+      <xdr:rowOff>102660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>487190</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419154</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>238975</xdr:rowOff>
+      <xdr:rowOff>266189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -852,7 +855,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15969339" y="15155124"/>
+          <a:off x="17141170" y="15642017"/>
           <a:ext cx="191663" cy="163529"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -914,6 +917,66 @@
         <a:xfrm>
           <a:off x="14415043" y="11305171"/>
           <a:ext cx="207538" cy="160354"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CH" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1994647</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2199010</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Stern: 5 Zacken 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456FD74E-1F07-4FDE-BA19-2F5F2E3D9275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020235" y="578411"/>
+          <a:ext cx="204363" cy="164089"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
@@ -1266,20 +1329,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF437DF-561F-4C8F-9F0F-6E85A2A9A366}">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1298,8 +1361,17 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1318,118 +1390,166 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="30"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
       <c r="C4" s="49"/>
       <c r="D4" s="43"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="31" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="41" t="s">
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
-        <v>28</v>
+      <c r="R5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D11" si="0">SUM(E6:Q6)</f>
@@ -1450,13 +1570,22 @@
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="14">
         <f t="shared" si="0"/>
@@ -1477,15 +1606,24 @@
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>26</v>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -1506,13 +1644,22 @@
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="14">
         <f t="shared" si="0"/>
@@ -1533,15 +1680,24 @@
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
-        <v>25</v>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="0"/>
@@ -1562,13 +1718,22 @@
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
@@ -1589,15 +1754,24 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>27</v>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" ref="D12:D13" si="1">SUM(E12:Q12)</f>
@@ -1618,13 +1792,22 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="1"/>
@@ -1645,15 +1828,24 @@
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>33</v>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="14">
         <v>2</v>
@@ -1673,13 +1865,22 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:D17" si="2">SUM(E15:Q15)</f>
@@ -1700,15 +1901,24 @@
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>41</v>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" si="2"/>
@@ -1729,13 +1939,22 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="15">
         <f t="shared" si="2"/>
@@ -1756,13 +1975,22 @@
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D7,D9,D11,D13,D15)</f>
@@ -1783,14 +2011,23 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1805,15 +2042,24 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
-        <v>32</v>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" ref="D20:D27" si="3">SUM(E20:Q20)</f>
@@ -1838,13 +2084,22 @@
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="3"/>
@@ -1869,15 +2124,24 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
-        <v>30</v>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="3"/>
@@ -1902,13 +2166,22 @@
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="14">
         <f t="shared" si="3"/>
@@ -1933,15 +2206,24 @@
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
-        <v>31</v>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="14">
         <f t="shared" si="3"/>
@@ -1968,13 +2250,22 @@
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="14">
         <f t="shared" si="3"/>
@@ -2001,15 +2292,24 @@
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>41</v>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="3"/>
@@ -2030,13 +2330,22 @@
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="15">
         <f t="shared" si="3"/>
@@ -2055,13 +2364,22 @@
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="10">
         <f>SUM(D21,D23,D25)</f>
@@ -2082,14 +2400,23 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2104,15 +2431,24 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
-        <v>34</v>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" ref="D30:D39" si="4">SUM(E30:Q30)</f>
@@ -2135,13 +2471,22 @@
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="15">
         <f t="shared" si="4"/>
@@ -2164,15 +2509,24 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>29</v>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="16">
         <f t="shared" si="4"/>
@@ -2195,13 +2549,22 @@
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="16">
         <f t="shared" si="4"/>
@@ -2224,15 +2587,24 @@
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
-      <c r="R33" s="7"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
-        <v>27</v>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="16">
         <f t="shared" si="4"/>
@@ -2255,13 +2627,22 @@
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
-      <c r="R34" s="7"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="16">
         <f t="shared" si="4"/>
@@ -2284,15 +2665,24 @@
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
-      <c r="R35" s="7"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
-        <v>25</v>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="16">
         <f t="shared" si="4"/>
@@ -2315,13 +2705,22 @@
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
-      <c r="R36" s="7"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="16">
         <f t="shared" si="4"/>
@@ -2344,15 +2743,24 @@
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
-      <c r="R37" s="7"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="29" t="s">
-        <v>41</v>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="16">
         <f t="shared" si="4"/>
@@ -2375,13 +2783,22 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
-      <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" si="4"/>
@@ -2404,13 +2821,22 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11">
         <f>SUM(D31,D33,D35,D37)</f>
@@ -2431,14 +2857,23 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2453,15 +2888,24 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="29" t="s">
-        <v>35</v>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" ref="D42:D59" si="5">SUM(E42:Q42)</f>
@@ -2482,17 +2926,26 @@
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="20"/>
-      <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
@@ -2501,21 +2954,32 @@
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
+      <c r="L43" s="25">
+        <v>0.5</v>
+      </c>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
-      <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
-        <v>53</v>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" ref="D44:D45" si="6">SUM(E44:Q44)</f>
@@ -2538,17 +3002,26 @@
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
-      <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
@@ -2559,25 +3032,36 @@
       <c r="K45" s="25">
         <v>2</v>
       </c>
-      <c r="L45" s="25"/>
+      <c r="L45" s="25">
+        <v>4.5</v>
+      </c>
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
-      <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="29" t="s">
-        <v>38</v>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="16">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
@@ -2590,21 +3074,32 @@
       <c r="M46" s="21">
         <v>2</v>
       </c>
-      <c r="N46" s="20"/>
+      <c r="N46" s="21">
+        <v>1</v>
+      </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="20"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
@@ -2614,24 +3109,37 @@
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="20"/>
+      <c r="M47" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="N47" s="22">
+        <v>1</v>
+      </c>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="20"/>
-      <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
-        <v>42</v>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="16">
         <f t="shared" ref="D48" si="7">SUM(E48:Q48)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
@@ -2644,21 +3152,32 @@
       <c r="M48" s="21">
         <v>1</v>
       </c>
-      <c r="N48" s="20"/>
+      <c r="N48" s="21">
+        <v>2</v>
+      </c>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
-      <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="16">
         <f>SUM(E49:Q49)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
@@ -2668,24 +3187,37 @@
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="20"/>
+      <c r="M49" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="N49" s="22">
+        <v>1</v>
+      </c>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="20"/>
-      <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" s="29" t="s">
-        <v>39</v>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
@@ -2699,20 +3231,31 @@
         <v>2.5</v>
       </c>
       <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="O50" s="21">
+        <v>1</v>
+      </c>
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
-      <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
@@ -2722,24 +3265,37 @@
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="22"/>
+      <c r="M51" s="22">
+        <v>1.5</v>
+      </c>
       <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="O51" s="22">
+        <v>2</v>
+      </c>
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
-      <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="29" t="s">
-        <v>40</v>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="16">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
@@ -2753,20 +3309,31 @@
         <v>2</v>
       </c>
       <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="O52" s="21">
+        <v>1</v>
+      </c>
       <c r="P52" s="20"/>
       <c r="Q52" s="20"/>
-      <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
@@ -2776,24 +3343,37 @@
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="22"/>
+      <c r="M53" s="22">
+        <v>2</v>
+      </c>
       <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="O53" s="22">
+        <v>1.5</v>
+      </c>
       <c r="P53" s="20"/>
       <c r="Q53" s="20"/>
-      <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="29" t="s">
-        <v>44</v>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="16">
         <f t="shared" ref="D54" si="8">SUM(E54:Q54)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
@@ -2807,24 +3387,35 @@
         <v>1</v>
       </c>
       <c r="N54" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O54" s="21">
         <v>2</v>
       </c>
-      <c r="P54" s="20"/>
+      <c r="P54" s="21">
+        <v>3</v>
+      </c>
       <c r="Q54" s="20"/>
-      <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
@@ -2834,24 +3425,39 @@
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="20"/>
+      <c r="M55" s="22">
+        <v>0</v>
+      </c>
+      <c r="N55" s="22">
+        <v>2</v>
+      </c>
+      <c r="O55" s="22">
+        <v>2</v>
+      </c>
+      <c r="P55" s="22"/>
       <c r="Q55" s="20"/>
-      <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" s="29" t="s">
-        <v>41</v>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B56" s="30"/>
       <c r="C56" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="16">
         <f t="shared" ref="D56" si="9">SUM(E56:Q56)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
@@ -2867,24 +3473,33 @@
         <v>1</v>
       </c>
       <c r="N56" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" s="21">
         <v>2</v>
       </c>
       <c r="P56" s="20"/>
       <c r="Q56" s="20"/>
-      <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
@@ -2896,20 +3511,35 @@
         <v>1</v>
       </c>
       <c r="L57" s="20"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
+      <c r="M57" s="22">
+        <v>1</v>
+      </c>
+      <c r="N57" s="22">
+        <v>3</v>
+      </c>
+      <c r="O57" s="22">
+        <v>2</v>
+      </c>
       <c r="P57" s="20"/>
       <c r="Q57" s="20"/>
-      <c r="R57" s="7"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="29" t="s">
-        <v>54</v>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="B58" s="30"/>
       <c r="C58" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="16">
         <f t="shared" ref="D58" si="10">SUM(E58:Q58)</f>
@@ -2924,19 +3554,28 @@
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
-      <c r="N58" s="21">
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="21">
         <v>3</v>
       </c>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
       <c r="Q58" s="20"/>
-      <c r="R58" s="7"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="15">
         <f t="shared" si="5"/>
@@ -2951,21 +3590,30 @@
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
-      <c r="N59" s="22"/>
+      <c r="N59" s="20"/>
       <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
+      <c r="P59" s="22"/>
       <c r="Q59" s="20"/>
-      <c r="R59" s="7"/>
-    </row>
-    <row r="60" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="1:27" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="11">
         <f>SUM(D43,D47,D51,D53,D55,D57,D59,D49)</f>
-        <v>1</v>
+        <v>24.5</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2982,14 +3630,23 @@
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="7"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A61" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="7"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3004,15 +3661,24 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="7"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" s="29" t="s">
-        <v>45</v>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A62" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" ref="D62:D65" si="11">SUM(E62:Q62)</f>
@@ -3028,21 +3694,30 @@
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
-      <c r="O62" s="21">
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="21">
         <v>3</v>
       </c>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="7"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="15">
-        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="D63" s="16">
+        <f>SUM(E63:U63)</f>
         <v>0</v>
       </c>
       <c r="E63" s="23"/>
@@ -3055,18 +3730,27 @@
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
-      <c r="O63" s="25"/>
+      <c r="O63" s="24"/>
       <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="7"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A64" s="29" t="s">
-        <v>47</v>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="B64" s="30"/>
       <c r="C64" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="16">
         <f t="shared" si="11"/>
@@ -3082,18 +3766,27 @@
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
-      <c r="O64" s="21">
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="21">
         <v>3</v>
       </c>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="7"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="16">
         <f t="shared" si="11"/>
@@ -3109,18 +3802,27 @@
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
-      <c r="O65" s="22"/>
+      <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="7"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" s="29" t="s">
-        <v>46</v>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A66" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="B66" s="30"/>
       <c r="C66" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="16">
         <f>SUM(E66:Q66)</f>
@@ -3137,20 +3839,29 @@
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
-      <c r="P66" s="21">
+      <c r="P66" s="20"/>
+      <c r="Q66" s="21">
         <v>2</v>
       </c>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="7"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A67" s="31"/>
-      <c r="B67" s="32"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="16">
-        <f>SUM(E67:Q67)</f>
+        <f>SUM(E67:U67)</f>
         <v>0</v>
       </c>
       <c r="E67" s="19"/>
@@ -3164,19 +3875,28 @@
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="7"/>
-    </row>
-    <row r="68" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P67" s="20"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+    </row>
+    <row r="68" spans="1:27" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="11" t="e">
-        <f>SUM(D63,D65,D67,#REF!,)</f>
-        <v>#REF!</v>
+        <v>16</v>
+      </c>
+      <c r="D68" s="11">
+        <f>SUM(D63,D65,D67,)</f>
+        <v>0</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3189,18 +3909,27 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="5">
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5">
         <v>5</v>
       </c>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A69" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A69" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="7"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3216,17 +3945,26 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A70" s="29" t="s">
-        <v>49</v>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="B70" s="30"/>
       <c r="C70" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="14">
-        <f t="shared" ref="D70:D77" si="12">SUM(E70:Q70)</f>
+        <v>7</v>
+      </c>
+      <c r="D70" s="15">
+        <f t="shared" ref="D70:D79" si="12">SUM(E70:U70)</f>
         <v>1</v>
       </c>
       <c r="E70" s="20"/>
@@ -3240,17 +3978,26 @@
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="21">
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="21">
         <v>1</v>
       </c>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="15">
         <f t="shared" si="12"/>
@@ -3267,19 +4014,28 @@
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="25"/>
+      <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="29" t="s">
-        <v>50</v>
+      <c r="R71" s="25"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A72" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="16">
+        <v>7</v>
+      </c>
+      <c r="D72" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -3294,19 +4050,28 @@
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="21">
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="21">
         <v>1</v>
       </c>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="16">
+        <v>6</v>
+      </c>
+      <c r="D73" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3321,20 +4086,29 @@
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="22"/>
+      <c r="P73" s="20"/>
       <c r="Q73" s="20"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" s="29" t="s">
-        <v>43</v>
+      <c r="R73" s="22"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A74" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="B74" s="30"/>
       <c r="C74" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="16">
-        <f>SUM(E74:Q74)</f>
+        <v>7</v>
+      </c>
+      <c r="D74" s="15">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E74" s="19"/>
@@ -3348,20 +4122,29 @@
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="21">
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="21">
         <v>4</v>
       </c>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="16">
-        <f>SUM(E75:Q75)</f>
+        <v>6</v>
+      </c>
+      <c r="D75" s="15">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E75" s="19"/>
@@ -3375,19 +4158,28 @@
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" s="29" t="s">
-        <v>51</v>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A76" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="B76" s="30"/>
       <c r="C76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="16">
+        <v>7</v>
+      </c>
+      <c r="D76" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -3402,19 +4194,28 @@
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="21">
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="21">
         <v>1</v>
       </c>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="16">
+        <v>6</v>
+      </c>
+      <c r="D77" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3429,20 +4230,29 @@
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="22"/>
+      <c r="P77" s="20"/>
       <c r="Q77" s="20"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" s="29" t="s">
-        <v>41</v>
+      <c r="R77" s="20"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B78" s="30"/>
       <c r="C78" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="16">
-        <f t="shared" ref="D78:D79" si="13">SUM(E78:Q78)</f>
+        <v>7</v>
+      </c>
+      <c r="D78" s="15">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E78" s="19"/>
@@ -3456,22 +4266,31 @@
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
-      <c r="P78" s="21">
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="21">
         <v>1</v>
       </c>
-      <c r="Q78" s="21">
+      <c r="S78" s="21">
         <v>2</v>
       </c>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E79" s="19"/>
@@ -3485,18 +4304,27 @@
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+    </row>
+    <row r="80" spans="1:27" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" s="11">
-        <f>SUM(D71,D73,)</f>
+        <f>SUM(D75,D77,D79,D73,D71,)</f>
         <v>0</v>
       </c>
       <c r="E80" s="5"/>
@@ -3511,61 +4339,70 @@
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="5">
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5">
         <v>6</v>
       </c>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81" s="7">
-        <f>SUM(E53,E51,E47,E43,E37,E35,E33,E31,E13,E25,E23,E21,E11,E9,E7,E27,E39,E45,E49,E55,E57,E59,E15,E17,E63,E65,E67,E71,E73,E75,E77,E79,)</f>
+        <f t="shared" ref="E81:N81" si="13">SUM(E53,E51,E47,E43,E37,E35,E33,E31,E13,E25,E23,E21,E11,E9,E7,E27,E39,E45,E49,E55,E57,E59,E15,E17,E63,E65,E67,E71,E73,E75,E77,E79,)</f>
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <f>SUM(F53,F51,F47,F43,F37,F35,F33,F31,F13,F25,F23,F21,F11,F9,F7,F27,F39,F45,F49,F55,F57,F59,F15,F17,F63,F65,F67,F71,F73,F75,F77,F79,)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G81" s="7">
-        <f>SUM(G53,G51,G47,G43,G37,G35,G33,G31,G13,G25,G23,G21,G11,G9,G7,G27,G39,G45,G49,G55,G57,G59,G15,G17,G63,G65,G67,G71,G73,G75,G77,G79,)</f>
+        <f t="shared" si="13"/>
         <v>8.5</v>
       </c>
       <c r="H81" s="7">
-        <f>SUM(H53,H51,H47,H43,H37,H35,H33,H31,H13,H25,H23,H21,H11,H9,H7,H27,H39,H45,H49,H55,H57,H59,H15,H17,H63,H65,H67,H71,H73,H75,H77,H79,)</f>
+        <f t="shared" si="13"/>
         <v>8.5</v>
       </c>
       <c r="I81" s="7">
-        <f>SUM(I53,I51,I47,I43,I37,I35,I33,I31,I13,I25,I23,I21,I11,I9,I7,I27,I39,I45,I49,I55,I57,I59,I15,I17,I63,I65,I67,I71,I73,I75,I77,I79,)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="J81" s="7">
-        <f>SUM(J53,J51,J47,J43,J37,J35,J33,J31,J13,J25,J23,J21,J11,J9,J7,J27,J39,J45,J49,J55,J57,J59,J15,J17,J63,J65,J67,J71,J73,J75,J77,J79,)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K81" s="7">
-        <f>SUM(K53,K51,K47,K43,K37,K35,K33,K31,K13,K25,K23,K21,K11,K9,K7,K27,K39,K45,K49,K55,K57,K59,K15,K17,K63,K65,K67,K71,K73,K75,K77,K79,)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="L81" s="7">
-        <f>SUM(L53,L51,L47,L43,L37,L35,L33,L31,L13,L25,L23,L21,L11,L9,L7,L27,L39,L45,L49,L55,L57,L59,L15,L17,L63,L65,L67,L71,L73,L75,L77,L79,)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="M81" s="7">
         <f>SUM(M53,M51,M47,M43,M37,M35,M33,M31,M13,M25,M23,M21,M11,M9,M7,M27,M39,M45,M49,M55,M57,M59,M15,M17,M63,M65,M67,M71,M73,M75,M77,M79,)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="N81" s="7">
-        <f>SUM(N53,N51,N47,N43,N37,N35,N33,N31,N13,N25,N23,N21,N11,N9,N7,N27,N39,N45,N49,N55,N57,N59,N15,N17,N63,N65,N67,N71,N73,N75,N77,N79,)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="O81" s="7">
         <f>SUM(O53,O51,O47,O43,O37,O35,O33,O31,O13,O25,O23,O21,O11,O9,O7,O27,O39,O45,O49,O55,O57,O59,O15,O17,O63,O65,O67,O71,O73,O75,O77,O79,)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P81" s="7">
         <f>SUM(P53,P51,P47,P43,P37,P35,P33,P31,P13,P25,P23,P21,P11,P9,P7,P27,P39,P45,P49,P55,P57,P59,P15,P17,P63,P65,P67,P71,P73,P75,P77,P79,)</f>
@@ -3575,9 +4412,30 @@
         <f>SUM(Q53,Q51,Q47,Q43,Q37,Q35,Q33,Q31,Q13,Q25,Q23,Q21,Q11,Q9,Q7,Q27,Q39,Q45,Q49,Q55,Q57,Q59,Q15,Q17,Q63,Q65,Q67,Q71,Q73,Q75,Q77,Q79,)</f>
         <v>0</v>
       </c>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R81" s="7">
+        <f t="shared" ref="R81" si="14">SUM(R53,R51,R47,R43,R37,R35,R33,R31,R13,R25,R23,R21,R11,R9,R7,R27,R39,R45,R49,R55,R57,R59,R15,R17,R63,R65,R67,R71,R73,R75,R77,R79,)</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="7">
+        <f>SUM(S53,S51,S47,S43,S37,S35,S33,S31,S13,S25,S23,S21,S11,S9,S7,S27,S39,S45,S49,S55,S57,S59,S15,S17,S63,S65,S67,S71,S73,S75,S77,S79,)</f>
+        <v>0</v>
+      </c>
+      <c r="T81" s="7">
+        <f>SUM(T53,T51,T47,T43,T37,T35,T33,T31,T13,T25,T23,T21,T11,T9,T7,T27,T39,T45,T49,T55,T57,T59,T15,T17,T63,T65,T67,T71,T73,T75,T77,T79,)</f>
+        <v>0</v>
+      </c>
+      <c r="U81" s="7">
+        <f>SUM(U53,U51,U47,U43,U37,U35,U33,U31,U13,U25,U23,U21,U11,U9,U7,U27,U39,U45,U49,U55,U57,U59,U15,U17,U63,U65,U67,U71,U73,U75,U77,U79,)</f>
+        <v>0</v>
+      </c>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3596,19 +4454,28 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" s="7">
-        <f>SUM(E81:Q81)</f>
-        <v>36</v>
+        <f>SUM(E81:U81)</f>
+        <v>64</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3622,8 +4489,18 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3642,8 +4519,17 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3662,8 +4548,17 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3682,220 +4577,704 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
-      <c r="B89" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="1"/>
+      <c r="B89" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="1"/>
+      <c r="B90" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
-      <c r="B91" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
-      <c r="B92" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
-      <c r="B93" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="1"/>
+      <c r="B93" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
-      <c r="B94" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="1"/>
+      <c r="B94" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="86">
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:M4"/>
@@ -3912,9 +5291,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="A51:B51"/>
@@ -3922,12 +5298,14 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A34:B34"/>
@@ -3939,22 +5317,39 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
